--- a/references/CAC/Calculating Unadjusted Sales and Marketing CAC data for class copy.xlsx
+++ b/references/CAC/Calculating Unadjusted Sales and Marketing CAC data for class copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rehabnaeem/Documents/Coding-Projects/customer-analytics/references/CAC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38CF0BC8-3343-EE4C-88AA-4B58FE7D2AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BDD877-E4FA-3B4E-A27A-498129829BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15720" xr2:uid="{352191C6-0002-4DDB-BFEA-6801281DE966}"/>
   </bookViews>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA5F565-76A1-46A5-A25C-EFF8FE2778F5}">
   <dimension ref="B2:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1705,18 +1705,54 @@
       <c r="B40" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
+      <c r="C40" s="4">
+        <f>C9+C10*0.8+C11*0.8+C12+C13+C15+C17</f>
+        <v>197</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" ref="D40:N40" si="8">D9+D10*0.8+D11*0.8+D12+D13+D15+D17</f>
+        <v>211.19</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="8"/>
+        <v>226.16490000000005</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" si="8"/>
+        <v>241.98801500000008</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="8"/>
+        <v>258.72829017000004</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="8"/>
+        <v>276.46083098390011</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="8"/>
+        <v>295.26748480656914</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="8"/>
+        <v>315.23747900464429</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="8"/>
+        <v>336.46812115506685</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="8"/>
+        <v>359.06556747897594</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="8"/>
+        <v>383.14566623737312</v>
+      </c>
+      <c r="N40" s="4">
+        <f t="shared" si="8"/>
+        <v>408.83488349444912</v>
+      </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
@@ -1775,47 +1811,47 @@
         <v>94.949494949494948</v>
       </c>
       <c r="D44" s="11">
-        <f t="shared" ref="D44:N44" si="8">D21/D34</f>
+        <f t="shared" ref="D44:N44" si="9">D21/D34</f>
         <v>93.318254641409851</v>
       </c>
       <c r="E44" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>91.789048602755486</v>
       </c>
       <c r="F44" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>90.347552090325607</v>
       </c>
       <c r="G44" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>91.206164821643114</v>
       </c>
       <c r="H44" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>92.064971894250306</v>
       </c>
       <c r="I44" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>90.758448089242023</v>
       </c>
       <c r="J44" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>89.503176898510517</v>
       </c>
       <c r="K44" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>90.394521646664685</v>
       </c>
       <c r="L44" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>89.194298141916661</v>
       </c>
       <c r="M44" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>88.028364718176391</v>
       </c>
       <c r="N44" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>88.913036389715117</v>
       </c>
     </row>
@@ -1823,18 +1859,54 @@
       <c r="B45" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
+      <c r="C45" s="11">
+        <f>C40/C34</f>
+        <v>39.797979797979799</v>
+      </c>
+      <c r="D45" s="11">
+        <f t="shared" ref="D45:N45" si="10">D40/D34</f>
+        <v>39.805861841485246</v>
+      </c>
+      <c r="E45" s="11">
+        <f t="shared" si="10"/>
+        <v>39.813243038422577</v>
+      </c>
+      <c r="F45" s="11">
+        <f t="shared" si="10"/>
+        <v>39.820186989555928</v>
+      </c>
+      <c r="G45" s="11">
+        <f t="shared" si="10"/>
+        <v>40.822416060911415</v>
+      </c>
+      <c r="H45" s="11">
+        <f t="shared" si="10"/>
+        <v>41.824618209439869</v>
+      </c>
+      <c r="I45" s="11">
+        <f t="shared" si="10"/>
+        <v>41.830837426857251</v>
+      </c>
+      <c r="J45" s="11">
+        <f t="shared" si="10"/>
+        <v>41.836777152905718</v>
+      </c>
+      <c r="K45" s="11">
+        <f t="shared" si="10"/>
+        <v>42.838716357376498</v>
+      </c>
+      <c r="L45" s="11">
+        <f t="shared" si="10"/>
+        <v>42.84431225166459</v>
+      </c>
+      <c r="M45" s="11">
+        <f t="shared" si="10"/>
+        <v>42.849700988207509</v>
+      </c>
+      <c r="N45" s="11">
+        <f t="shared" si="10"/>
+        <v>43.851527420996185</v>
+      </c>
     </row>
     <row r="46" spans="2:14" ht="16" x14ac:dyDescent="0.2">
       <c r="B46" s="9" t="s">
